--- a/biology/Histoire de la zoologie et de la botanique/Ulysses_Simpson_Grant_IV/Ulysses_Simpson_Grant_IV.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ulysses_Simpson_Grant_IV/Ulysses_Simpson_Grant_IV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulysses Simpson Grant IV est un géologue et un paléontologue américain, né le 23 mai 1893 à Salem dans l'État de New York et mort le 11 mars 1977 à Santa Monica en Californie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du juriste et homme d’affaires Ulysses S. Grant Jr (1852-1929) et petit-fils du président des États-Unis Ulysses Simpson Grant (1822-1885).
 Il obtient son Bachelor of Arts (1915) au Harvard College et son doctorat (1929) à l’université Stanford. Il enseigne de 1931 à 1959 à l’université de Californie à Los Angeles (UCLA). À son départ à la retraite, il est fait professeur émérite.
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Tucker Abbott (1974). American Malacologists. A National Register of Professional and Amateur Malacologists and Private Shell Collectors and Biographies of Early American Mollusk Workers Born Between 1618 and 1900, American Malacologists (Falls Church, Virginie) : iv + 494 p.  (ISBN 0-913792-02-0)
 (en) Nécrologie (consultée le 22 août 2008)</t>
